--- a/doc/Process/3-软件迭代阶段/2-软件第二次迭代(v0.2)/SprintBacklogs-0.2.xlsx
+++ b/doc/Process/3-软件迭代阶段/2-软件第二次迭代(v0.2)/SprintBacklogs-0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6ECE6595-760A-3A43-9CDF-9E71031B4D5A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{35F8F8E1-0221-2140-B3C6-EC8938A62F51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,26 +161,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
+    <t>B01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>B07</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -859,7 +859,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1级,2级,3级,4级,5级"</formula1>
     </dataValidation>
